--- a/Excel/작업TimeSpace.xlsx
+++ b/Excel/작업TimeSpace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193F472-88F2-4CEB-AB8E-B425115B2991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01948078-AF7F-4466-BB8A-7BDEF4DAB8EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="14325" yWindow="1575" windowWidth="14025" windowHeight="10680" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSpacePositionTable" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>requiredPowerLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stringId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>평균레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredAccumulatedPowerLevel|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,22 +453,22 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -588,7 +588,7 @@
         <v>1.2</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -612,7 +612,7 @@
         <v>1.2</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -636,7 +636,7 @@
         <v>1.3</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -660,7 +660,7 @@
         <v>1.3</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>1.5</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업TimeSpace.xlsx
+++ b/Excel/작업TimeSpace.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01948078-AF7F-4466-BB8A-7BDEF4DAB8EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8AB71A-1D9E-474A-8D8F-2C83C6B249A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="1575" windowWidth="14025" windowHeight="10680" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
-    <sheet name="TimeSpacePositionTable" sheetId="2" r:id="rId1"/>
+    <sheet name="TimeSpaceLevel" sheetId="3" r:id="rId1"/>
+    <sheet name="TimeSpacePositionTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>multi|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +73,14 @@
   </si>
   <si>
     <t>requiredAccumulatedPowerLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward|String!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,8 +444,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,13 +453,12 @@
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="4" width="12.625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -462,16 +470,10 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -482,20 +484,11 @@
         <v>1.5</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2" si="0">B2/C2</f>
+        <f>B2/C2</f>
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,17 +502,8 @@
         <f>B3/C3</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -530,20 +514,11 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D10" si="1">B4/C4</f>
+        <f>B4/C4</f>
         <v>3.75</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -554,20 +529,11 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f>B5/C5</f>
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -578,20 +544,11 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f>B6/C6</f>
         <v>7.5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1.2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -602,20 +559,11 @@
         <v>6.5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f>B7/C7</f>
         <v>12.307692307692308</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1.2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -626,20 +574,11 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f>B8/C8</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1.3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -650,20 +589,11 @@
         <v>8.5</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f>B9/C9</f>
         <v>21.176470588235293</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1.3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -674,16 +604,167 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f>B10/C10</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="E10">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1.2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1.3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>1.5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Excel/작업TimeSpace.xlsx
+++ b/Excel/작업TimeSpace.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8AB71A-1D9E-474A-8D8F-2C83C6B249A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE8664-ECE4-4ADA-949F-D346B6DAB191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
-    <sheet name="TimeSpaceLevel" sheetId="3" r:id="rId1"/>
-    <sheet name="TimeSpacePositionTable" sheetId="2" r:id="rId2"/>
+    <sheet name="ResearchTable" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,38 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>multi|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>positionId|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeSpaceUI_Low</t>
-  </si>
-  <si>
-    <t>TimeSpaceUI_Medium</t>
-  </si>
-  <si>
-    <t>TimeSpaceUI_High</t>
-  </si>
-  <si>
-    <t>TimeSpaceUI_Ultra</t>
-  </si>
-  <si>
-    <t>TimeSpaceUI_ExtraUltra</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>필요캐릭터인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +50,62 @@
   </si>
   <si>
     <t>reward|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 길다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돋보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 상자 5회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 상자 업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294627A-88CA-400D-B366-14507FB4AA24}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,322 +479,323 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="4" width="12.625" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <f>B2/C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D2:D10" si="0">B2/C2</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <f>B3/C3</f>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <f>B4/C4</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <f>B5/C5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C6">
+        <v>6.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <f>B6/C6</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <f>B7/C7</f>
-        <v>12.307692307692308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D8">
-        <f>B8/C8</f>
-        <v>17.142857142857142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>3.0588235294117645</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <f>B9/C9</f>
-        <v>21.176470588235293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <f>B10/C10</f>
-        <v>27.777777777777779</v>
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D16" si="1">B11/C11</f>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-0.1111111111111111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F8106D-C533-421C-9D15-EBE282763947}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1.2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1.2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1.3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1.3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1.5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>